--- a/merged-progress.xlsx
+++ b/merged-progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherjanssen/odrive/swingsetwood - Personal/bootcamp/Projects/Project-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris_janssen/odrive/swingsetwood - Personal/bootcamp/Projects/Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E9173-8C7B-4F49-805B-BC6C9CE04BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B0F0C-9DFD-A842-A7F5-25A779FCC861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16320" xr2:uid="{B718937F-A822-614F-B3E1-775D1E64E74D}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26740" xr2:uid="{B718937F-A822-614F-B3E1-775D1E64E74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
